--- a/batches/23/week_01/day_03/day_03.xlsx
+++ b/batches/23/week_01/day_03/day_03.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shira/Documents/work/acciojob/modules/sql/batches/23/week_01/day_03/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{47B2C974-0AA9-8541-9952-C7D8098F7885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08691064-913C-474D-8F36-C75E0D747496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{2E957793-BDFA-5D41-BC5E-5BFC2BF864FA}"/>
+    <workbookView xWindow="29400" yWindow="0" windowWidth="38400" windowHeight="21600" activeTab="3" xr2:uid="{2E957793-BDFA-5D41-BC5E-5BFC2BF864FA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Recap" sheetId="1" r:id="rId1"/>
+    <sheet name="Agenda" sheetId="2" r:id="rId2"/>
+    <sheet name="discussion" sheetId="3" r:id="rId3"/>
+    <sheet name="text" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -35,9 +38,349 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="103">
+  <si>
+    <t>═══════════════════════════════════════════════════════════════</t>
+  </si>
+  <si>
+    <t>📚 WHAT WE'VE LEARNED SO FAR - YOUR SQL JOURNEY!</t>
+  </si>
+  <si>
+    <t>📅 Day 1: Introduction to SQL &amp; Installation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ✅ Understood WHAT SQL is (Structured Query Language)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ✅ Learned WHY SQL matters (every company uses databases!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ✅ Discovered the 5 SQL Components:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      • DDL (Data Definition Language) - CREATE, ALTER, DROP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      • DML (Data Manipulation Language) - INSERT, UPDATE, DELETE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      • DQL (Data Query Language) - SELECT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      • DCL (Data Control Language) - GRANT, REVOKE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      • TCL (Transaction Control Language) - COMMIT, ROLLBACK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ✅ Understood Database vs Schema (Building vs Floors concept)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ✅ Learned about Database Objects (Tables, Views, Indexes)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ✅ Understood DBMS vs RDBMS difference</t>
+  </si>
+  <si>
+    <t>📅 Day 2: Basic Queries &amp; DDL Commands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ✅ Wrote our first SQL queries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ✅ Mastered DDL Commands:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      • CREATE DATABASE - Create new databases</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      • CREATE SCHEMA - Create logical groupings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      • CREATE TABLE - Define table structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      • DROP - Remove database objects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      • ALTER - Modify existing structures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ✅ Used SELECT version() to check PostgreSQL version</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ✅ Understood system queries</t>
+  </si>
+  <si>
+    <t xml:space="preserve">📅 Today (Day 3): We'll complete RetailMart setup AND master </t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ALL PostgreSQL Data Types - the building blocks of every table! 🧱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ✅ Installed PostgreSQL 18, pgAdmin 4, Git Bash and VS Code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   ✅ RetailMart database setup</t>
+  </si>
+  <si>
+    <t>📋 TODAY'S DETAILED AGENDA (2 Hours)</t>
+  </si>
+  <si>
+    <t>🔷 Part 1: Complete RetailMart Setup (30 mins)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • Create RetailMart database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • Create all 8 schemas (core, customers, sales, products, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     stores, hr, finance, marketing)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • Create all tables from schema files</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • Import CSV data into tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • Verify setup with SELECT queries</t>
+  </si>
+  <si>
+    <t>🔷 Part 2: Numeric Data Types (25 mins)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • INTEGER, SMALLINT, BIGINT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • DECIMAL/NUMERIC (precision matters!)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • REAL, DOUBLE PRECISION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • SERIAL, BIGSERIAL (auto-increment)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • Hands-on Practice</t>
+  </si>
+  <si>
+    <t>🔷 Part 3: Text Data Types (20 mins)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • CHAR(n) - Fixed length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • VARCHAR(n) - Variable length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • TEXT - Unlimited length</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • When to use which?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • Live Coding Examples</t>
+  </si>
+  <si>
+    <t>🔷 Part 4: Date/Time &amp; Boolean Types (20 mins)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • DATE, TIME, TIMESTAMP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • INTERVAL (time differences)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • BOOLEAN (true/false)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • Practical examples</t>
+  </si>
+  <si>
+    <t>🔷 Part 5: Advanced Types (15 mins)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • JSON and JSONB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • UUID (Universal Unique Identifier)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • ARRAY types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • Other types overview (BYTEA, MONEY, INET)</t>
+  </si>
+  <si>
+    <t>🔷 Part 6: Best Practices &amp; Wrap-up (10 mins)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • Selecting correct data types</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • Naming conventions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • Altering columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   • Q&amp;A Session</t>
+  </si>
+  <si>
+    <t>Total Duration: 120 minutes</t>
+  </si>
+  <si>
+    <t>Databases</t>
+  </si>
+  <si>
+    <t>postgres</t>
+  </si>
+  <si>
+    <t>accio_23</t>
+  </si>
+  <si>
+    <t>retailmart</t>
+  </si>
+  <si>
+    <t>rename the database</t>
+  </si>
+  <si>
+    <t>Types Of Data</t>
+  </si>
+  <si>
+    <t>Categorical</t>
+  </si>
+  <si>
+    <t>Numerical</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Numbers</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Siraj</t>
+  </si>
+  <si>
+    <r>
+      <t>Text</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA4B1CD"/>
+        <rFont val="Fira Code"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FF5CB2FF"/>
+        <rFont val="Fira Code"/>
+      </rPr>
+      <t>Data</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFA4B1CD"/>
+        <rFont val="Fira Code"/>
+      </rPr>
+      <t xml:space="preserve"> Types </t>
+    </r>
+  </si>
+  <si>
+    <t>Characters</t>
+  </si>
+  <si>
+    <t>char</t>
+  </si>
+  <si>
+    <t>varchar</t>
+  </si>
+  <si>
+    <t>Auto Rikshaw</t>
+  </si>
+  <si>
+    <t>A -&gt; B</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>15 min</t>
+  </si>
+  <si>
+    <t>Meter</t>
+  </si>
+  <si>
+    <t>45 min</t>
+  </si>
+  <si>
+    <t>char(10)</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>\o</t>
+  </si>
+  <si>
+    <t>unlimited</t>
+  </si>
+  <si>
+    <t>Delivery</t>
+  </si>
+  <si>
+    <t>10 x 10 x 10</t>
+  </si>
+  <si>
+    <t>5 x 5 x 5</t>
+  </si>
+  <si>
+    <t>Names</t>
+  </si>
+  <si>
+    <t>ABCD123456</t>
+  </si>
+  <si>
+    <t>10 KB</t>
+  </si>
+  <si>
+    <t>5 KB</t>
+  </si>
+  <si>
+    <t>000000000001</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -45,13 +388,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFA4B1CD"/>
+      <name val="Fira Code"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF5CB2FF"/>
+      <name val="Fira Code"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +425,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -83,6 +447,1866 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>658873</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>130455</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161389</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>52791</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{063B6F89-E7F1-8DFE-74B6-3B53255D34AC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3967200" y="1554120"/>
+            <a:ext cx="1156680" cy="939240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{063B6F89-E7F1-8DFE-74B6-3B53255D34AC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3962880" y="1549800"/>
+              <a:ext cx="1165320" cy="947880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>767269</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>198115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>590959</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>26530</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C977DB8-59FE-600F-534E-F79C853E1449}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5729760" y="1418400"/>
+            <a:ext cx="2047320" cy="1252080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C977DB8-59FE-600F-534E-F79C853E1449}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5725440" y="1414080"/>
+              <a:ext cx="2055960" cy="1260720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>463717</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>21015</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>533953</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>39831</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED6338B9-94F3-F6DE-7614-5D7C63EFBD45}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8476920" y="1444680"/>
+            <a:ext cx="1724400" cy="1035720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Ink 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED6338B9-94F3-F6DE-7614-5D7C63EFBD45}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8472600" y="1440360"/>
+              <a:ext cx="1733040" cy="1044360"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>172314</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>111811</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>108073</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>188890</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9188DC4-28EA-B639-283E-55A9A9154946}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="2653560" y="2349000"/>
+            <a:ext cx="762840" cy="483840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="5" name="Ink 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9188DC4-28EA-B639-283E-55A9A9154946}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="2649240" y="2344680"/>
+              <a:ext cx="771480" cy="492480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>585594</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>114389</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>43201</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>47564</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="8" name="Ink 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2D625F5-04D5-4021-62DB-46A8F21CE4F7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3066840" y="2961720"/>
+            <a:ext cx="3335400" cy="1356840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="8" name="Ink 7">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A2D625F5-04D5-4021-62DB-46A8F21CE4F7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3062520" y="2957400"/>
+              <a:ext cx="3344040" cy="1365480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>13559</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>108470</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="911147" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28742BA9-DA52-5DA0-4A6C-E8A308E74076}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4148968" y="1938897"/>
+          <a:ext cx="911147" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>kadai</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> Paneer</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="568104" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26272966-C5FF-334D-B448-FDFDAF394D47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6359039" y="1830427"/>
+          <a:ext cx="568104" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Biryani</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>203381</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="819520" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1DF4978-7FA7-3F4D-BBD9-13444C35D598}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8840285" y="1627046"/>
+          <a:ext cx="819520" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Dal</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> makhni</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>827081</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>203380</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="510333" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="TextBox 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12DDB42F-C6B1-DE45-BB41-CDC3C464DF24}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3308327" y="3457473"/>
+          <a:ext cx="510333" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Kheer</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>244057</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>9040</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="614662" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="TextBox 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79A33908-2304-C149-B9EB-03549229E81E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2725303" y="2449609"/>
+          <a:ext cx="614662" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>achar</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>967188</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>158184</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="474297" cy="264560"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DCBE3AFB-A77A-4C43-959E-3077C15CE1C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5929679" y="3412277"/>
+          <a:ext cx="474297" cy="264560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Lassi</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>69679</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>14290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>197155</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>137544</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="15" name="Ink 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC4AE10-F82E-6F1B-15C0-8F129DFBB241}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7255800" y="2658240"/>
+            <a:ext cx="1781640" cy="1546920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="Ink 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFC4AE10-F82E-6F1B-15C0-8F129DFBB241}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7249680" y="2652120"/>
+              <a:ext cx="1793880" cy="1559160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>617995</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>54288</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>671635</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>20127</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="18" name="Ink 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE32B757-9F6C-AA4F-AAAA-440A4253A16E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9458280" y="3105000"/>
+            <a:ext cx="53640" cy="372600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="18" name="Ink 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE32B757-9F6C-AA4F-AAAA-440A4253A16E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9452160" y="3098880"/>
+              <a:ext cx="65880" cy="384840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>731431</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>69615</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>325549</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>174754</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="19" name="Ink 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6846E0F0-A4D1-9A67-F950-A8A03C9F85F7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4866840" y="1493280"/>
+            <a:ext cx="421200" cy="308520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="19" name="Ink 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6846E0F0-A4D1-9A67-F950-A8A03C9F85F7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4860720" y="1487160"/>
+              <a:ext cx="433440" cy="320760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>635671</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>62871</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>608869</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>42447</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="22" name="Ink 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0627A4C4-974D-F900-3996-30D4FF040EEA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4771080" y="2503440"/>
+            <a:ext cx="800280" cy="996480"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="22" name="Ink 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0627A4C4-974D-F900-3996-30D4FF040EEA}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4764960" y="2497320"/>
+              <a:ext cx="812520" cy="1008720"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>820351</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>132255</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>242749</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>31891</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="35" name="Ink 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C56185-A5D3-251A-A564-7608A6D0330D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4955760" y="1555920"/>
+            <a:ext cx="249480" cy="713160"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="35" name="Ink 34">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33C56185-A5D3-251A-A564-7608A6D0330D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4949640" y="1549800"/>
+              <a:ext cx="261720" cy="725400"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>240193</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>32175</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>475273</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>160013</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="38" name="Ink 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D066A419-2421-0C57-7A10-CB05A3C7CF8B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3548520" y="1455840"/>
+            <a:ext cx="235080" cy="534600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="38" name="Ink 37">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D066A419-2421-0C57-7A10-CB05A3C7CF8B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3542400" y="1449720"/>
+              <a:ext cx="247320" cy="546840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>347149</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>8434</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>914509</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>127954</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="39" name="Ink 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02487771-ECFD-4579-DA05-0A787752B3FB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="5309640" y="1635480"/>
+            <a:ext cx="567360" cy="119520"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="39" name="Ink 38">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02487771-ECFD-4579-DA05-0A787752B3FB}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5303520" y="1629360"/>
+              <a:ext cx="579600" cy="131760"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>799795</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>84528</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>801235</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85968</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="40" name="Ink 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{750E6347-4542-9DDF-4ED6-D5EAE044ACA5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9640080" y="3135240"/>
+            <a:ext cx="1440" cy="1440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="40" name="Ink 39">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{750E6347-4542-9DDF-4ED6-D5EAE044ACA5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9633960" y="3129120"/>
+              <a:ext cx="13680" cy="13680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>439273</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>175872</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>432992</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>162951</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="44" name="Ink 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B69CBB6-8FFC-5BAC-201F-12189826F71F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="10106640" y="2209680"/>
+            <a:ext cx="820800" cy="393840"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="44" name="Ink 43">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B69CBB6-8FFC-5BAC-201F-12189826F71F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="10100517" y="2203560"/>
+              <a:ext cx="833045" cy="406080"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>774073</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>97867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>96751</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>160887</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="45" name="Ink 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECAF6F36-BE6A-B1CC-840F-34E1B5EE1B97}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4082400" y="3351960"/>
+            <a:ext cx="149760" cy="266400"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="45" name="Ink 44">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECAF6F36-BE6A-B1CC-840F-34E1B5EE1B97}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4076280" y="3345840"/>
+              <a:ext cx="162000" cy="278640"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>809515</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>191429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>177553</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>29107</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="46" name="Ink 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34871050-F5CC-3F8A-938F-C730852789E7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="9649800" y="3038760"/>
+            <a:ext cx="195120" cy="244440"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="46" name="Ink 45">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34871050-F5CC-3F8A-938F-C730852789E7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="9643680" y="3032640"/>
+              <a:ext cx="207360" cy="256680"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-08T15:52:37.966"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1191 0 24575,'-78'42'0,"0"-1"0,-1 1 0,1-1 0,18-3 0,-1 0 0,-18 7 0,-19 7 0,4 1 0,23-7 0,29-7 0,11-3 0,-8 14 0,-2 4 0,20-14 0,-10 17 0,8-1 0,-5 3 0,-3 12 0,16-30 0,-22 44 0,27-49 0,-11 28 0,18-42 0,-6 43 0,-1-16 0,4 3 0,1 3 0,-3 12 0,4 27 0,12-25 0,-1-19 0,3-7 0,-1-25 0,9 7 0,25 27 0,-4-6 0,3-2 0,3 2 0,-11-9 0,3-1 0,18 14 0,4 0 0,-6-1 0,1-2 0,7-1 0,-3-4 0,18 15 0,-24-26 0,-2-4 0,2 0 0,3-2 0,5 0 0,-12-9 0,1 0 0,30 5 0,3-1 0,-20-7 0,1-2 0,32 2 0,2-3 0,-17-4 0,-3-3 0,-4 2 0,-4-2 0,-8-3 0,-3-4 0,-3-3 0,-4-2 0,20-2 0,1-4 0,0 0 0,1 2 0,-23 3 0,2-2 0,39-19 0,-43 15 0,7-9 0,-47 21 0,-5-2 0,1 3 0,1-4 0,7-17 0,27-36 0,-10 10 0,4-5 0,-1 1 0,-4 8 0,0-6 0,0-4 0,4-13 0,-11 22 0,1-1 0,13-26 0,-14 23 0,22-34 0,-22 34 0,1-9 0,0-1 0,3-6 0,-14 15 0,-3 1 0,6-8 0,-10 4 0,-2 7 0,-3 27 0,-4-11 0,0 21 0,-9-13 0,7 14 0,-23-27 0,-22-5 0,-2-2 0,-16-1 0,-2 3 0,-5 0 0,13 10 0,-13-4 0,5 3 0,0 2 0,-2 0-145,1 1 0,-5-1 0,4 1 145,-4-2 0,3 2 0,-9 0 0,2 2 0,18 5 0,3 2 0,8 4 0,-1-1 0,-8-4 0,1 1 0,14 6 0,-1-1 0,-24-9 0,0 1 0,20 9 0,2 0 217,-10-5 1,5 1-218,-1 4 0,8 0 0,20 7 0,13 5 0,9 2 0,-2-1 0,3 2 0,-9-4 0,2 2 0,1-1 0,-1 1 0,3 2 0,0-1 0,2 3 0,-2-1 0,7 2 0,-3-1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink10.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-08T15:57:14.125"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">538 658 24575,'-5'23'0,"4"12"0,-3 12 0,-1 12 0,4-22 0,-4-2 0,4-23 0,1 3 0,0 4 0,1 4 0,0 14 0,-1 6 0,2 41 0,3-35 0,1 3 0,-2 12 0,0 0 0,5-3 0,0 1 0,-1 14 0,-1-2 0,4 21 0,1-33 0,-1-5 0,-3-8 0,10-2 0,-13-26 0,2-6 0,-5-11 0,-1-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="955">0 263 24575,'0'-4'0,"0"2"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1338">141 437 24575,'0'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1738">430 372 24575,'0'-8'0,"-2"4"0,2 3 0,-1 1 0,1 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2159">355 228 24575,'0'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3179">226 99 24575,'0'0'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3705">501 3 24575,'-3'-3'0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4141">687 172 24575,'3'-3'0,"-2"2"0,1 2 0,-2 0 0,0 1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4738">620 290 24575,'-1'-3'0,"-1"0"0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="5730">214 329 24575,'-3'-3'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink11.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-08T15:57:30.647"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">165 162 24575,'-20'11'0,"-22"19"0,4-5 0,-3 6 0,22-17 0,17-9 0,0 4 0,5-4 0,-2 5 0,3 13 0,-3 12 0,3-1 0,1 5 0,0-22 0,3 0 0,-3-8 0,0 1 0,-3 0 0,5 5 0,-3-2 0,4 3 0,-1-8 0,0-1 0,0-4 0,7 9 0,0-4 0,2 5 0,2-6 0,-1-1 0,18 2 0,-11-4 0,15 3 0,-12-6 0,-5 1 0,3-2 0,-13-2 0,15 1 0,-15-4 0,8 2 0,-13-3 0,-3 3 0,11-15 0,-1 2 0,25-43 0,-11 24 0,9-28 0,-10 17 0,-9 9 0,2-7 0,-10 18 0,2-26 0,-5 20 0,-1-30 0,-3 34 0,-5-1 0,0 13 0,-2 7 0,-3 2 0,-4 0 0,-1 3 0,-11-3 0,6 3 0,-4 2 0,2-1 0,7 3 0,-11 2 0,5-2 0,-6 3 0,7-1 0,2 3 0,6-1 0,-1 0 0,6-2 0,-8 2 0,4-1 0,-12 5 0,0 3 0,4-5 0,0 4 0,4-9 0,-2 5 0,-4-3 0,4 5 0,1-3 0,6-1 0,2-1 0,-1-3 0,1 3 0,-9 2 0,0 1 0,-8 3 0,5-1 0,4-4 0,5 1 0,6-3 0,-1 0 0,-1 0 0,-7 7 0,3-3 0,-4 4 0,7-5 0,2-3 0,3-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1374">199 617 24575,'0'8'0,"0"9"0,0 43 0,-7 22 0,5 10 0,-1-32 0,0-5 0,3 2 0,0 25 0,0-44 0,-4 31 0,4-29 0,-8 22 0,7-31 0,-4-5 0,5-9 0,0-1 0,0-1 0,-1 3 0,0-10 0,0 2 0,1-8 0,0 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-08T15:57:43.647"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 6 24575,'8'-3'0,"13"1"0,29 4 0,9 1 0,11 4 0,2 4 0,-18 1 0,0-3 0,-6 3 0,-11-3 0,3 3 0,4-2 0,6-4 0,10 2 0,10-1 0,-9 4 0,-10-5 0,-11-1 0,-18-1 0,0-3 0,3 3 0,10 1 0,2 2 0,19 7 0,-9-10 0,-4 6 0,-2-7 0,6 9 0,20 8 0,0-1 0,16 9 0,-54-18 0,5 1 0,-54-19 0,-35-12 0,-19-12 0,2 6 0,19 2 0,35 16 0,4 3 0,8 3 0,2 1 0,-1-1 0,1 1 0,0-1 0,-7-8 0,4 2 0,-6-6 0,1-9 0,4 6 0,-3-6 0,8 10 0,-2 2 0,3 5 0,-1-3 0,3 10 0,14 6 0,26 19 0,5 0 0,5 11 0,0 1 0,7 3 0,9 20 0,-41-44 0,-16-9 0,2-6 0,7 5 0,-4-3 0,1 3 0,-5-2 0,-6-1 0,0-2 0,-1 0 0,-4-2 0,-7 0 0,-11 0 0,-20 0 0,-9 0 0,-21 0 0,24 0 0,-3 1 0,29 1 0,0 2 0,5-2 0,6 2 0,4-2 0,4 0 0,0-1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-08T15:57:51.163"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 24575,'1'2'0,"1"-1"0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-08T15:58:07.080"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">864 83 19168,'-15'-5'0,"-74"-20"1242,40 17 1,-5 1-1243,-33-8 0,-4 2 0,14 7 0,5 4 462,13 1 1,4 1-463,-33 6 480,56 1-480,-1 3 1510,25-4-1510,-1 3 7,0 2-7,3-2 0,-6 12 0,9-7 0,-6 19 0,6-2 0,0 31 0,3-13 0,13 30 0,11-9 0,3-11 0,21 14 0,4-27 0,2 3 0,3-10 0,10-1 0,-7-10 0,-8-11 0,1-3 0,7-2 0,27-11 0,-44-11 0,20-14 0,-8-6 0,-1-16 0,-11 10 0,-4-30 0,-22 19 0,3-24 0,-16 21 0,-2 3 0,-2 10 0,-1 3 0,-4 10 0,-1 1 0,-2 9 0,0-3 0,0 4 0,-7 0 0,1 3 0,-20-3 0,-1 1 0,-37-2 0,20 3 0,-11 4 0,32-2 0,-8 5 0,-3-4 0,13 4 0,3 2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2284">52 505 24575,'5'0'0,"-1"0"0,1 5 0,1 2 0,1 1 0,13 24 0,-1-4 0,20 35 0,-10-21 0,9 10 0,-19-28 0,5 3 0,-13-14 0,1-1 0,-3-3 0,8 8 0,-1 0 0,3 2 0,-4-3 0,-4-7 0,0 0 0,7 6 0,1-2 0,-3 0 0,19 6 0,-22-13 0,37 15 0,-17-10 0,13 1 0,5 1 0,17 4 0,-7-6 0,-2-1 0,-8-1 0,7-2 0,-45-6 0,-4 0 0,-4-1 0,-4-1 0,2 1 0,1-24 0,5-25 0,0-15 0,-2-14 0,-9 18 0,-2 11 0,-7-8 0,4 13 0,-4-8 0,1 7 0,-6 2 0,7 7 0,-3 0 0,9 19 0,0 3 0,2 6 0,1 5 0,-3-1 0,0 1 0,0-1 0,0 0 0,2 2 0,1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3033">932 394 24575,'66'0'0,"20"-9"0,14-4 0,-31 3 0,1 0 0,5-2-567,2-1 0,6-2 1,0 0-1,-7-1 567,-1-1 0,-5 0 0,-3 1 363,19-4 0,-11 3-363,2 0 374,-51 16-374,-18 3 0,6 3 0,-7-2 1167,11 2-1167,-7-2 0,3 0 0,-5-1 0,-8 0 0,2 1 0,-3 0 0,1 0 0,-1-2 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-08T15:58:32.563"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">201 463 24575,'-6'2'0,"0"-2"0,5 3 0,-3-2 0,3 3 0,-3 2 0,3 1 0,-4 2 0,2 6 0,0-2 0,1 7 0,1-4 0,-1-5 0,2-2 0,0-5 0,1 3 0,2 0 0,1 5 0,-1-4 0,1-2 0,-1 2 0,3-4 0,-2 3 0,3-2 0,0 1 0,3 1 0,-1-1 0,6 3 0,-4-5 0,-1 1 0,-1-4 0,-5-1 0,1 0 0,-2 0 0,1 0 0,8-6 0,2-3 0,3-2 0,2-3 0,-10 8 0,2-2 0,-4 1 0,-1 1 0,1 0 0,-3 1 0,-1-1 0,1 0 0,-3-2 0,1-2 0,1-9 0,-1 3 0,4-20 0,-4 5 0,0-54 0,-2 16 0,-2-22 0,2 52 0,-6 9 0,6 20 0,-10-17 0,6 13 0,-11-19 0,4 10 0,-3 2 0,4 6 0,2 10 0,-6 1 0,5 1 0,-5-1 0,6 3 0,-2 2 0,-2 1 0,-1 3 0,-3 1 0,5 2 0,-1-3 0,6 2 0,2-4 0,-8 13 0,-2 6 0,-7 9 0,-9 18 0,-3-1 0,3 0 0,1-3 0,19-19 0,0-7 0,4-7 0,4-7 0,-2 1 0,2 0 0,1 5 0,0-6 0,1 4 0,0-3 0,0 7 0,0 2 0,1 2 0,7 16 0,6 4 0,1 1 0,4 4 0,4-1 0,-10-18 0,6 7 0,-17-25 0,1-1 0,1-1 0,1 6 0,6-1 0,-4 1 0,2-3 0,-5-4 0,-1-2 0,0 0 0,0 1 0,0-1 0,5 2 0,8-10 0,11 0 0,13-9 0,-14 9 0,-1-1 0,-20 9 0,-2-3 0,0 2 0,-1-2 0,0 1 0,1-3 0,-1 3 0,3-3 0,-2 3 0,2 0 0,-3-1 0,1 0 0,-1 2 0,0-2 0,0 2 0,-1-2 0,0 0 0,1 0 0,0 0 0,0 2 0,-2-2 0,5-4 0,-3 5 0,2-6 0,-2 8 0,-1-1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink16.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-08T15:58:52.980"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#F6630D"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 250 24575,'16'71'0,"6"-1"0,-9-17 0,1 0 0,11 23 0,-8-12 0,-8-35 0,-2-17 0,-6-11 0,0-1 0,-1-4 0,14-20 0,19-33 0,17-26 0,-12 18 0,3-3 0,3-1 0,0 3 0,-12 14 0,-2 4 0,20-25 0,-42 60 0,-2 1 0,1 1 0,4-8 0,-6 11 0,-1 2 0,-4 7 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-08T15:52:49.115"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1108 402 24575,'-3'0'0,"0"0"0,-4 0 0,-7 0 0,-2 0 0,-13 0 0,11 0 0,-12 0 0,19 0 0,-3 0 0,11 0 0,1 1 0,1 0 0,-3 6 0,0 0 0,-7 9 0,-12 19 0,5-8 0,-8 13 0,12-20 0,-6 7 0,-6 6 0,-14 6 0,-9 14 0,-17 6 0,1 3 0,14-10 0,11-14 0,24-17 0,4-8 0,3 2 0,-2-3 0,6-1 0,-4 4 0,4 1 0,-14 29 0,-11 32 0,-3-2 0,0 9 0,6-30 0,13-10 0,-6 5 0,7-5 0,-12 24 0,-16 20 0,2-4 0,16-38 0,2-2 0,-5 20 0,8-18 0,6-2 0,3-10 0,2 27 0,-3-6 0,3 9 0,2-25 0,7-2 0,3-13 0,5 24 0,7-23 0,0 14 0,25 21 0,-11-18 0,2 4 0,0 0 0,0 1 0,7 4 0,0 1 0,2 1 0,1-3 0,-8-13 0,3-1 0,23 18 0,3-3 0,-22-24 0,2-3 0,37 11 0,4-2 0,-25-9 0,4 0 0,16 0 0,10 1 0,-4-1 0,4 2 0,3 0-1047,-17-8 1,8 0-1,2 0 1,-8-2 1046,-8-2 0,-5-2 0,7 0 0,11-1 0,9-1 0,2-1 0,-4-2 0,-12-2 0,-1-3 0,-2 0 0,1-1 0,-1 0 0,-1 0 0,1-2 0,2-1 0,11-3 0,3-3 0,-2 0 0,-8 0-45,14-1 1,-2-3 44,1-4 0,6-5 0,-10 3 0,-15 4 0,-2-1 0,4-8 0,6-3 0,-7 0 0,-6 2 0,0-4 0,13-9 0,8-7 0,-7 1 0,-4-3 0,-1-4 0,-14 6 0,5-6 0,-1-2 0,-7 4 0,7-13 0,-2-3 0,-11 12 0,5-7 0,-2 0 0,-8 6 0,1-9 0,-5-1-625,4-6 0,4-7 0,-10 6 625,-15 13 0,-4-1 1354,10-33 1,-7 2-1355,-11-2 46,-11 21 1,-7-2-47,-14 12 0,-5 1 0,0 1 0,-2 1 0,-6-1 0,-5 2 0,-8 2 0,-3 4 0,10 11 0,-5 0 0,-11-8 0,-7-3 0,2 3 0,0 3 0,-2-1 747,-9-4 0,-9-4 0,2 4-747,12 10 0,1 3 0,0 0 0,0 0 0,0 0 0,-3 1 369,-12-5 0,-4 0 0,0 4-369,2 6 0,0 3 0,1 1 0,7 1 0,1 1 0,-3 2 0,-17 1 0,-4 3 0,5 4 0,-7 2 0,-3 4 0,20 3 0,-9 0 0,-1 1 0,6 0-1426,0-2 0,5 1 0,-4-1 1426,-17 0 0,-4 1 0,3 0 0,13 2 0,3 0 0,-1-1-222,-3-3 1,-1-2 0,1 1 221,6 5 0,1 1 0,3 0 0,-24-7 0,10 2 0,32 7 0,6 0 0,-27 0 0,22 0 0,1 0 0,-19 9 0,-25 5 0,10 5 4102,21 3-4102,9-8 840,38-1-840,9-5 0,6-1 0,1-2 0,-8 22 0,3-5 0,-15 38 0,10-16 0,-3 0 0,8-12 0,4-9 0,-2-3 0,5-2 0,-1-6 0,4-8 0,-2-1 0,2 4 0,0-2 0,2 1 0,-1 0 0,0-5 0,-1 1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-08T15:52:52.981"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">996 2 24575,'-16'-1'0,"-10"4"0,-30 31 0,-5 7 0,1 9 0,-3 5 0,12-9 0,0 1 0,-14 13 0,2 1 0,16-13 0,5-4 0,-10 11 0,23-18 0,26-32 0,-4 5 0,-1 16 0,-10 11 0,0 9 0,-7 0 0,3 0 0,-2 14 0,-5 27 0,10-12 0,2-19 0,0-1 0,-2 9 0,0-5 0,6-13 0,7-18 0,-4 25 0,3-5 0,-9 40 0,10 3 0,-4-8 0,10-21 0,4 2 0,4-4 0,1 0 0,-3 0 0,2 1 0,14 22 0,2-6 0,2 0 0,-2-30 0,3 0 0,27 32 0,-15-43 0,2 0 0,1 4 0,5 1 0,38 6 0,7-6-293,-21-12 0,4-4 293,-4-3 0,5-1 0,3-3 0,13-5 0,5-3 0,-1-2 0,-5-2 0,1-2 0,2 0-396,-9-1 0,4 0 1,0-1-1,-3-3 396,13-4 0,-3-2 0,-2-1 0,-5 3 0,-2-1 0,2-2-291,9-5 1,2-3 0,-5 1 290,-20 5 0,-4 0 0,1 0 0,12-2 0,2 0 0,-5-1 0,9-2 0,0-4 0,-11-1 0,5-4 0,-6 1 0,8-5 0,-2-1 0,-17 2 0,1-1 0,-8-1 0,-10-3 0,-7 0 257,1 1 0,-5-1-257,17-28 0,-6 7 0,1-1 0,12-14 775,5 0 1,2-1-776,-30 31 0,-2 2 487,7-8 1,-3 1-488,4-5 0,-16 9 0,-14 8 0,7-20 0,-11-23 0,2 8 0,-8-14 0,-6-18 0,-12 19 0,6 20 0,0-1 0,-15-32 0,3 19 0,-1-7 0,4 40 0,-2-4 0,6 24 0,-1 1 0,0 4 0,-2-4 0,-7-4 0,-21-14 0,-4 2 0,-2-1 0,2 5 0,-6 5 0,-15-3 0,-27-5 0,35 18 0,-6 2 0,-25-9 0,-3 2 0,13 7 0,-2 1 0,15 0 0,-2 0 0,4 2 0,-8 2 0,3 2 0,3-4 0,1 0 0,13 5 0,3 0 0,-35-10 0,33 10 0,-43-14 0,19 10 0,-8 0 0,-11 2 0,-2 10 0,-4 3-288,19-3 1,-2 0 0,3 1 287,-23 3 0,9 1-70,23-2 0,11-2 70,10-3 0,0 0 0,10 0 0,-36 0 0,7 0 855,-9 0-855,4 0 147,-6 0-147,13 0 0,5 5 0,-29 12 0,46-5 0,-22 6 0,52-15 0,10-3 0,-19-1 0,-35-3 0,3 3 0,-36-5 0,54 6 0,-1-4 0,28 3 0,7 0 0,1 1 0,2 1 0,0 0 0,-1 0 0,-3-1 0,-5 0 0,1 2 0,-35 5 0,31-3 0,-21 4 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-08T15:52:55.881"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1426 45 24575,'-2'-7'0,"-3"0"0,-5-2 0,-10-1 0,-30 4 0,0 1 0,-8 15 0,-3 6 0,-18 4 0,20 1 0,-4 5 0,0 4 0,3 1 0,-25 11 0,25-7 0,1 3 0,13-6 0,3 1 0,3 0 0,0 1 0,-9 5 0,-1 2 0,-2 3 0,3-3 0,-15 13 0,-2 3 0,44-36 0,1 12 0,-9 8 0,1 3 0,4 0 0,14-25 0,8 10 0,1-18 0,5 14 0,1-18 0,20 18 0,4-3 0,12 9 0,-4-4 0,14 10 0,15 10 0,9-2 0,10 4 0,-25-28 0,1-4 0,30 9 0,-17-10 0,1-2 0,-18-9 0,-3-2 0,39 4 0,-17-7 0,7 0 0,-33-6 0,2-2 0,3 1 0,1-3 0,2-3 0,-2-5 0,-5-4 0,-5-3 0,22-16 0,-19 10 0,0-4 0,24-32 0,-13 12 0,1-9 0,-28 28 0,21-20 0,-19 22 0,13-26 0,-25 29 0,0-17 0,-13 25 0,-2-14 0,-12 13 0,-5-11 0,-1 13 0,-7-4 0,9 13 0,-9-11 0,3 9 0,-6-6 0,4 9 0,-6-7 0,4 3 0,-16-18 0,0-3 0,2 3 0,8 4 0,14 16 0,2 2 0,3 6 0,-2-2 0,1 4 0,-8-6 0,-1 1 0,-23-10 0,10 6 0,-10-7 0,22 12 0,1 1 0,10 3 0,-3 0 0,-5-1 0,6 2 0,-5-2 0,3 2 0,-17-3 0,5 1 0,-25-4 0,11 3 0,3-1 0,2 1 0,19-1 0,1 4 0,4 0 0,-14 1 0,-7-2 0,-1 1 0,1-1 0,18 5 0,4-3 0,2 3 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-08T15:52:59.365"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.025" units="cm"/>
+      <inkml:brushProperty name="height" value="0.025" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1050 576 24575,'-3'-3'0,"1"2"0,-7 1 0,-4 3 0,-15 12 0,-28 29 0,12-8 0,-2 3 0,-1 3 0,0 2 0,-7 5 0,1-1 0,5-4 0,1 0 0,4-1 0,0 2 0,-10 12 0,3 0 0,-6 18 0,21-30 0,4 1 0,-1 26 0,-9 11 0,21-32 0,0 1 0,-10 33 0,14-30 0,2 2 0,3-4 0,1 0 0,1-3 0,-1 1 0,1 9 0,1-1 0,3 36 0,1-22 0,1 2 0,7-10 0,2-1 0,-2 6 0,1-1 0,4-15 0,2-2 0,2-1 0,2 0 0,10 11 0,3-2 0,-5-16 0,3 0 0,10 10 0,6-1 0,5-13 0,2-2 0,-4-1 0,6 2 0,13 0 0,9 2 0,-2-3 0,6 4 0,9-3-257,-15-15 0,12 0 1,7-1-1,-1-1 1,-5-3 256,-2-1 0,-2-3 0,-1-1 0,4-1 0,14 1 0,5 0 0,-2-2 0,-6-2 0,2-2 0,-5-1 0,-7-2 0,7 0 0,-3-2-161,10-2 1,-1-2 160,-16-2 0,1-2 0,16 0 0,1-2 0,-9-4 0,0-1 0,7-1 0,2-1 0,-29 2 0,1-1 0,0-1 0,-5 1 0,0-1 0,-3 0 0,21-7 0,0-1 0,-19 5 0,3-1 0,-3-2 0,17-9 0,0-2 0,8 1 0,1-5 0,-4-7 0,-7-5 0,-25 9 0,-5-3 0,2-3 0,-5-6 0,-7-9 0,-6-3 630,-7 10 1,-1-3-631,4-18 0,-3-2 0,-7 9 0,-3-1 0,0-18 0,-4-2 0,-2 13 0,-2 0 0,-2-11 0,-3 0 0,-2 14 0,-1 4 0,0 7 0,-2 2 171,0 8 1,-5-1-172,-11-23 0,-5 2 0,-12-14 0,7 25 0,-5-9 0,-2 4 0,-12-11 0,-1 3 0,2 2 0,-2 0 0,-12-10 0,-3 6 0,15 25 0,1 5 0,-2-1 0,-2 0 0,-13-8 0,-2 1 0,13 12 0,-3 2 0,-18-11 0,-2 3 0,15 14 0,-4 3 0,0 2 0,-5 0 0,-1 3 0,-24-3 0,-1 3 0,32 6 0,-1 0 0,0 0 0,-7 2 0,0 0 0,8 4 0,-35-5 0,13 2 0,-6 1 0,7 10 0,0 2 0,-6-4 0,-3 0 0,-4 4 0,-3 1 0,27 1 0,-2 0 0,0 1 0,-2-1 0,0 1 0,0-1-959,-3 1 0,0-1 0,2 1 959,5 1 0,2 0 0,4 0 0,-4 0 0,2 0 0,-22 0 0,4 0 0,-2 0 0,31 0 0,5 3 0,11 11 0,-1 9 0,-21 8 2877,-22 16-2877,21-9 0,2-5 0,35-12 0,18-8 0,-12 16 0,-1 8 0,-13 11 0,-3 9 0,15-17 0,-16 16 0,23-27 0,-14 23 0,10-16 0,-6 15 0,13-20 0,-2-2 0,8-3 0,-11 19 0,5 3 0,-6 3 0,12-19 0,0 0 0,4-11 0,0 5 0,2-7 0,2-8 0,0-1 0,1 6 0,-1-6 0,0 6 0,0-8 0,0 17 0,0 2 0,0 34 0,0-20 0,5 24 0,0-33 0,1-1 0,-1-13 0,-2 1 0,-1-8 0,1 7 0,-3-8 0,2-2 0,-2-3 0,0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2633">8640 1180 24575,'-2'-2'0,"-3"1"0,-32 10 0,-7 3 0,-38 10 0,23-5 0,-3 0 0,-2 1 0,-1 1 0,2-2 0,1 2 0,10 0 0,8 1 0,2 1 0,17-1 0,11-8 0,-1 12 0,3-1 0,-7 11 0,9-12 0,4-7 0,3 0 0,3 12 0,2 10 0,1 0 0,0-7 0,4-9 0,5 3 0,3-2 0,12 13 0,-8-13 0,9 8 0,-6-6 0,17 8 0,-9-8 0,12 5 0,8 2 0,-20-16 0,23 9 0,-5-12 0,22-7 0,-3 0 0,13-12 0,-23 1 0,1 0 0,37-6 0,-19 4 0,-4 1 0,-8 1 0,-5-4 0,-24-3 0,-5-5 0,36-13 0,-24 3 0,8 1 0,-31 13 0,-6 3 0,-4-10 0,-3-1 0,4-39 0,-7 20 0,-6-37 0,-4 25 0,-13-27 0,5 26 0,-1 5 0,5 26 0,2 4 0,-10-8 0,-1-8 0,-5 2 0,8 12 0,4 9 0,2 4 0,0 1 0,-7-3 0,1 0 0,0 1 0,3 3 0,-10 1 0,-2 5 0,-6 0 0,-20 8 0,18-4 0,-24 1 0,32-5 0,1 0 0,19 0 0,-28 3 0,-28 0 0,9 1 0,-6-1 0,46-3 0,6 1 0,4 1 0,2 0 0,-4 5 0,0 2 0,-18 27 0,16-22 0,-10 15 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-08T15:56:22.997"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">3927 157 24575,'-77'-15'0,"0"0"0,-11-2 0,-11 0 0,9 6 0,-12 1 0,-3 0 0,7 1-1251,21 1 0,4 1 0,0 0 0,-6 1 1251,-12 0 0,-7 1 0,-3 1 0,4 0 0,10 1 0,-4 1 0,9 2 0,-1 2 504,-12 4 1,-2 3 0,8 2-505,-1 3 0,9 5 406,7 5 1,6 4-407,21-3 0,4 2 0,-3 6 0,1 1 0,3-1 0,-1 2 1338,-11 11 1,0 0-1339,10-8 0,1 1 0,-11 11 0,1 4 0,5 7 0,2 3 0,-8 2 0,0 8-364,7 8 1,1 11-1,1-3 364,7-15 0,2-2 0,0 5 0,2-3 0,0 4 0,0 1 0,1 0 0,2-5 0,1 1 0,0-2 0,2-3 0,-3 10 0,2-3 0,0 0 0,-1 4 0,0 0 0,3-6-59,2 6 0,3-4 59,3 1 0,3 0 0,3 0 0,3 2 0,4 8 0,4 2 0,-1 6 0,3 0 0,6-2 0,3 0 0,0-4 0,2-2 0,3-12 0,3-3 0,1-3 0,1-4 0,12 21 0,-13-40 0,6-3 0,12-6 0,3-6 0,23 17 0,-16-21 0,6-7 542,15-12 0,3-7-542,-5-2 0,4-2 0,2 2 0,6-1 0,1-3 0,3-5 0,2-3 0,-2 0-347,-6 3 0,-1 1 0,2-2 347,5-4 0,1-3 0,0 2 0,-3 3 0,0 0 0,-2 0-11,22-5 0,-2 1 11,-27 8 0,0 2 0,0 0 0,-2 1 0,-1 1 0,2 0 0,12-1 0,2 0 0,-1 0-435,-6 3 0,-1-1 0,3-1 435,21-4 0,4-3 0,-10 0 0,-6-2 0,-2 0 0,-6 1 0,6 0 0,-2-1 0,-10 1 0,0 0 0,-1 1-133,2 2 0,0 0 0,0 0 133,-4 1 0,-1-1 0,-5 0 531,0-2 0,-6-1-531,38-10 21,-41-2-21,-3-2 1354,-13-12-1354,10-11 455,-8-2-455,11-25 0,-14-15 0,-18 44 0,-2-2 0,-2-15 0,-3 0 0,-6 12 0,-2 0 0,0-3 0,-1-1 0,-2 4 0,-1 1 0,5-30 0,-4 14 0,0-6 0,-1 4 0,0-3 0,-1-17 0,0-6-161,-1 19 1,-1-4 0,1 1 160,1 8 0,0 0 0,-1-3 0,-2-17 0,-2-4 0,-1 1 0,1 10 0,-1 1 0,0 2 0,-2 8 0,0 2 0,-1 1 0,-5-21 0,0 5 0,2 18 0,0 6 0,-4-17 0,1 17 0,1 29 0,-2-11 0,-8 1 481,-2-6-481,6 18 0,-15-15 0,-11-13 0,-8-2 0,-3-6 0,15 33 0,9 3 0,-9 5 0,-12-11 0,-12-2 0,19 11 0,-3-1 0,4 4 0,-1 1 0,-2-1 0,3 1 0,-13-6 0,31 17 0,19 6 0,3 4 0,-1-3 0,-5 1 0,3 0 0,-10-3 0,9 5 0,-2-1 0,9 2 0,2 2 0,1-1 0,-1 3 0,-8 8 0,6-8 0,-5 7 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-08T15:56:52.380"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">60 0 24575,'-4'3'0,"-1"0"0,-3 1 0,3-1 0,-5 7 0,5-2 0,-2 6 0,1 2 0,3-4 0,-2 4 0,5-2 0,-2 0 0,2-2 0,0 3 0,0-8 0,0 2 0,3-5 0,-1 3 0,3-2 0,-2 2 0,3-1 0,0 1 0,-2-4 0,8 4 0,-8-7 0,5 3 0,-3-2 0,-3 0 0,4-1 0,-3 0 0,1 0 0,1 0 0,0 0 0,0 0 0,-1-1 0,-5 0 0,-1-1 0,1 0 0,3-1 0,0-1 0,4 0 0,-2-2 0,3 0 0,-3 1 0,0 3 0,-2-2 0,-2 2 0,2-2 0,-3 1 0,2 0 0,-1-3 0,-1 3 0,1-3 0,-2 1 0,1 1 0,-4-4 0,2 2 0,-2 0 0,1 1 0,1-1 0,0 3 0,0-5 0,-1 3 0,-1 0 0,0 0 0,-2 3 0,0-3 0,3 2 0,-2-2 0,-1 2 0,-1 1 0,0 0 0,3-1 0,-1 2 0,1-2 0,-1 1 0,3 2 0,1 1 0,1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1350">98 249 24575,'1'31'0,"1"-1"0,-5-1 0,3 8 0,-3 31 0,0-11 0,-1-7 0,-2 1 0,-1 18 0,-3 15 0,6 5 0,2-28 0,2 3 0,0-36 0,0-13 0,1-9 0,-1-1 0,1-2 0,-1 0 0,0 0 0,0-2 0,0 1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-08T15:57:00.630"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">956 4 24575,'-67'6'0,"15"4"0,-7 3 0,-15 4 0,-6 3 0,-13 7 0,0 2 0,17-8 0,6 0 0,13 0 0,7-1 0,-4 3 0,22 4 0,3 11 0,6 5 0,1 9 0,10-12 0,1-12 0,9 9 0,5-14 0,1 19 0,18 10 0,6-5 0,14 19 0,-10-28 0,1-7 0,-13-21 0,4-1 0,2-2 0,18 3 0,13 2 0,0-5 0,22-2 0,-13-10 0,-14-5 0,2-3 0,34-13 0,-9-4 0,-28 6 0,-16 10 0,27-20 0,-18 11 0,9-7 0,-30 11 0,-3 0 0,-7-1 0,3-5 0,-1-9 0,-7-3 0,7 2 0,-12 5 0,-1 17 0,-7-1 0,1 4 0,-2-1 0,1 1 0,-10-20 0,4-3 0,-18-34 0,13 14 0,-12-18 0,15 36 0,1 1 0,5 25 0,7 6 0,-6-3 0,5 3 0,-7-5 0,4 3 0,-4-3 0,4 4 0,-3 3 0,-27 7 0,7 0 0,-15 1 0,12-4 0,7-3 0,1 0 0,2 3 0,8 0 0,-15 9 0,18-8 0,-9 5 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2026-01-08T15:57:03.930"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0066"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">637 510 24575,'-9'-3'0,"-36"7"0,-18 34 0,9 1 0,-4 7 0,3 2 0,2 5 0,-1 13 0,3 4 0,1-5 0,6-3 0,-5 20 0,3-2 0,41-65 0,5-1 0,1-12 0,5 7 0,9 6 0,13 11 0,7 4 0,33 23 0,-11-18 0,8 0 0,-9-4 0,5 2 0,5-2-491,22 4 0,7-1 0,1-2 491,-23-8 0,-1 0 0,3-2 0,2-3 0,19 0 0,6-3 0,-3-2 0,-9-1 0,-17 0 0,-7-1 0,0-3-136,9-2 0,0-2 0,-25-3 136,-35-2 0,-5-18 0,-4 11 0,22-54 0,-2 8 0,15-23 0,5-8 0,-19 23 0,-1 0 720,16-19 1,-3 1-721,-17 24 0,-5 4 440,4-24-440,-2-19 0,-15 43 0,-2-2 0,0-4 0,-1-2 0,0-18 0,-2-2 0,-9 10 0,-2 1 0,1-2 0,-6 2 0,-11 7 0,-3 8 0,-6-3 0,-1 15 0,21 36 0,-24-6 0,-20 3 0,10 3 0,-9 1 0,-7-3 0,-8 1 0,3 1 0,-14 3 0,-1 0 0,10-3 0,-4-1 0,7 2 0,4 3 0,8 2 0,-37 10 0,6 13 0,39-1 0,-25 19 0,32-18 0,-3 7 0,-5 5 0,1-3 0,1 0 0,-5 3 0,2 1 0,3-3 0,5-3 0,-1 2 0,6 18 0,18-2 0,-8 24 0,7 1 0,-1 18 0,7-27 0,8-9 0,9-34 0,4-18 0,1 0 0,1-4 0,10 0 0,-4 3 0,16 2 0,-10 1 0,35 11 0,-20-7 0,11 3 0,-26-7 0,-12-4 0,0-2 0,-3 3 0,3-3 0,-3 1 0,1-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1134">1216 1517 24575,'0'50'0,"0"11"0,0 8 0,0 5 0,0 3 0,2 17 0,0 1 0,-1-12 0,2 0 0,3 1 0,-1-4 0,-2-26 0,0-3 0,1 10 0,1-5 0,0-3 0,2-18 0,-1-11 0,-3-10 0,-2-8 0,0-4 0,0 3 0,4 12 0,-3-10 0,3 9 0</inkml:trace>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,12 +2626,709 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177AB22D-648B-924D-A1FB-510D4140D5B3}">
-  <dimension ref="A1"/>
+  <dimension ref="B2:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="217" workbookViewId="0"/>
+    <sheetView topLeftCell="A19" zoomScale="260" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA37A34E-7C70-CD4A-B92E-01D67C02B0F0}">
+  <dimension ref="B2:B48"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="188" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+    <col min="2" max="2" width="66" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57804E95-BEB2-6049-93C2-EAA9E0331DFC}">
+  <dimension ref="E2:G33"/>
+  <sheetViews>
+    <sheetView topLeftCell="C5" zoomScale="231" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="7" max="7" width="18.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="25" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E25" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="27" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>71</v>
+      </c>
+      <c r="G28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G33" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{524B03E5-745D-3C4B-9744-A01D7B075C94}">
+  <dimension ref="B2:N26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B17" zoomScale="318" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.5" customWidth="1"/>
+    <col min="2" max="2" width="27" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="22" x14ac:dyDescent="0.3">
+      <c r="B2" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="2:14" ht="22" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" ht="22" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" ht="22" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" ht="22" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14" ht="22" x14ac:dyDescent="0.3">
+      <c r="B10" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" ht="22" x14ac:dyDescent="0.3">
+      <c r="B11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>100</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" ht="22" x14ac:dyDescent="0.3">
+      <c r="B12" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F12">
+        <v>90</v>
+      </c>
+      <c r="G12">
+        <v>75</v>
+      </c>
+      <c r="H12">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>5</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+      <c r="J14">
+        <v>7</v>
+      </c>
+      <c r="K14">
+        <v>8</v>
+      </c>
+      <c r="L14">
+        <v>9</v>
+      </c>
+      <c r="M14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" ht="22" x14ac:dyDescent="0.3">
+      <c r="B15" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" t="s">
+        <v>90</v>
+      </c>
+      <c r="G15" t="s">
+        <v>91</v>
+      </c>
+      <c r="H15" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" t="s">
+        <v>93</v>
+      </c>
+      <c r="J15" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" t="s">
+        <v>93</v>
+      </c>
+      <c r="L15" t="s">
+        <v>93</v>
+      </c>
+      <c r="M15" t="s">
+        <v>93</v>
+      </c>
+      <c r="N15" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" ht="22" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>88</v>
+      </c>
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" t="s">
+        <v>91</v>
+      </c>
+      <c r="H16" t="s">
+        <v>92</v>
+      </c>
+      <c r="N16" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="22" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" t="s">
+        <v>96</v>
+      </c>
+      <c r="E19" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>97</v>
+      </c>
+      <c r="E20" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>98</v>
+      </c>
+      <c r="D22">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C25" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C26" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>